--- a/testData/WebForm/TC039_WF_RRYN_OneYN_TwoY_Test.xlsx
+++ b/testData/WebForm/TC039_WF_RRYN_OneYN_TwoY_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="108">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -264,12 +264,6 @@
     <t>two</t>
   </si>
   <si>
-    <t>9840002058</t>
-  </si>
-  <si>
-    <t>9840040228</t>
-  </si>
-  <si>
     <t>Carol</t>
   </si>
   <si>
@@ -321,9 +315,6 @@
     <t>9840027434</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>9840003802</t>
   </si>
   <si>
@@ -333,9 +324,6 @@
     <t>9840021666</t>
   </si>
   <si>
-    <t>9840057355</t>
-  </si>
-  <si>
     <t>9840064040</t>
   </si>
   <si>
@@ -346,9 +334,6 @@
   </si>
   <si>
     <t>9840073579</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>9840013209</t>
@@ -364,7 +349,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -745,92 +729,92 @@
   <dimension ref="A1:BG18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="O2" sqref="O2:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.08984375"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="42" max="43" customWidth="true" width="15.26953125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="45" max="46" customWidth="true" width="11.453125"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="48" max="54" customWidth="true" width="11.453125"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" customWidth="1"/>
+    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.54296875" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.6328125" customWidth="1"/>
+    <col min="34" max="35" width="15.26953125" customWidth="1"/>
+    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.81640625" customWidth="1"/>
+    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="15.26953125" customWidth="1"/>
+    <col min="44" max="44" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="11.453125" customWidth="1"/>
+    <col min="47" max="47" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="48" max="54" width="11.453125" customWidth="1"/>
+    <col min="55" max="55" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -839,139 +823,139 @@
       <c r="N1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s" s="0">
+      <c r="AE1" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" t="s" s="0">
+      <c r="AH1" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" t="s" s="0">
+      <c r="AI1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s" s="0">
+      <c r="AJ1" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" t="s" s="0">
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" t="s" s="0">
+      <c r="AL1" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" t="s" s="0">
+      <c r="AM1" t="s">
         <v>64</v>
       </c>
-      <c r="AN1" t="s" s="0">
+      <c r="AN1" t="s">
         <v>65</v>
       </c>
-      <c r="AO1" t="s" s="0">
+      <c r="AO1" t="s">
         <v>49</v>
       </c>
-      <c r="AP1" t="s" s="0">
+      <c r="AP1" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" t="s" s="0">
+      <c r="AQ1" t="s">
         <v>26</v>
       </c>
-      <c r="AR1" t="s" s="0">
+      <c r="AR1" t="s">
         <v>27</v>
       </c>
-      <c r="AS1" t="s" s="0">
+      <c r="AS1" t="s">
         <v>59</v>
       </c>
-      <c r="AT1" t="s" s="0">
+      <c r="AT1" t="s">
         <v>26</v>
       </c>
-      <c r="AU1" t="s" s="0">
+      <c r="AU1" t="s">
         <v>27</v>
       </c>
-      <c r="AV1" t="s" s="0">
+      <c r="AV1" t="s">
         <v>60</v>
       </c>
-      <c r="AW1" t="s" s="0">
+      <c r="AW1" t="s">
         <v>26</v>
       </c>
-      <c r="AX1" t="s" s="0">
+      <c r="AX1" t="s">
         <v>27</v>
       </c>
-      <c r="AY1" t="s" s="0">
+      <c r="AY1" t="s">
         <v>61</v>
       </c>
-      <c r="AZ1" t="s" s="0">
+      <c r="AZ1" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" t="s" s="0">
+      <c r="BA1" t="s">
         <v>27</v>
       </c>
-      <c r="BB1" t="s" s="0">
+      <c r="BB1" t="s">
         <v>62</v>
       </c>
-      <c r="BC1" t="s" s="0">
+      <c r="BC1" t="s">
         <v>26</v>
       </c>
-      <c r="BD1" t="s" s="0">
+      <c r="BD1" t="s">
         <v>27</v>
       </c>
-      <c r="BE1" t="s" s="0">
+      <c r="BE1" t="s">
         <v>63</v>
       </c>
-      <c r="BF1" t="s" s="0">
+      <c r="BF1" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" t="s" s="0">
+      <c r="BG1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -985,31 +969,31 @@
       <c r="C2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>92</v>
+      <c r="F2" t="s">
+        <v>90</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>55</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -1018,47 +1002,47 @@
       <c r="N2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s" s="0">
-        <v>48</v>
+      <c r="O2" t="s">
+        <v>17</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="R2" t="s" s="0">
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
         <v>48</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="T2" t="s" s="0">
+      <c r="T2" t="s">
         <v>48</v>
       </c>
-      <c r="U2" t="s" s="0">
+      <c r="U2" t="s">
         <v>48</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="W2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="X2" t="s" s="0">
+      <c r="W2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" t="s">
         <v>48</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" t="s" s="0">
+      <c r="Z2" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" t="s" s="0">
+      <c r="AA2" t="s">
         <v>48</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>17</v>
@@ -1067,7 +1051,7 @@
         <v>48</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AF2" s="4" t="s">
         <v>48</v>
@@ -1076,7 +1060,7 @@
         <v>48</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI2" s="4" t="s">
         <v>17</v>
@@ -1084,23 +1068,23 @@
       <c r="AJ2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" t="s" s="0">
+      <c r="AK2" t="s">
         <v>29</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM2" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="AN2" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="AO2" t="s" s="0">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>92</v>
       </c>
       <c r="AP2" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AQ2" s="4" t="s">
         <v>48</v>
@@ -1109,7 +1093,7 @@
         <v>48</v>
       </c>
       <c r="AS2" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AT2" s="4" t="s">
         <v>17</v>
@@ -1118,7 +1102,7 @@
         <v>48</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>17</v>
@@ -1127,7 +1111,7 @@
         <v>48</v>
       </c>
       <c r="AY2" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AZ2" s="4" t="s">
         <v>17</v>
@@ -1136,7 +1120,7 @@
         <v>48</v>
       </c>
       <c r="BB2" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BC2" s="4" t="s">
         <v>17</v>
@@ -1159,28 +1143,28 @@
       <c r="C3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>99</v>
+      <c r="F3" t="s">
+        <v>97</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1192,8 +1176,8 @@
       <c r="N3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O3" t="s" s="0">
-        <v>48</v>
+      <c r="O3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.35">
@@ -1206,28 +1190,28 @@
       <c r="C4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>101</v>
+      <c r="F4" t="s">
+        <v>98</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>55</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="K4" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1239,8 +1223,8 @@
       <c r="N4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O4" t="s" s="0">
-        <v>48</v>
+      <c r="O4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.35">
@@ -1253,28 +1237,28 @@
       <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s" s="0">
-        <v>105</v>
+      <c r="F5" t="s">
+        <v>101</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>55</v>
       </c>
-      <c r="K5" t="s" s="0">
+      <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1286,7 +1270,7 @@
       <c r="N5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="s" s="0">
+      <c r="O5" t="s">
         <v>17</v>
       </c>
       <c r="AE5" s="4"/>
@@ -1301,31 +1285,31 @@
       <c r="C6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s" s="0">
-        <v>93</v>
+      <c r="F6" t="s">
+        <v>91</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>55</v>
       </c>
-      <c r="K6" t="s" s="0">
+      <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="L6" t="s">
         <v>41</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1334,8 +1318,8 @@
       <c r="N6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O6" t="s" s="0">
-        <v>48</v>
+      <c r="O6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.35">
@@ -1348,14 +1332,14 @@
       <c r="C7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>107</v>
+      <c r="F7" t="s">
+        <v>103</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1363,16 +1347,16 @@
       <c r="H7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s" s="0">
+      <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="L7" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1381,7 +1365,7 @@
       <c r="N7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O7" t="s" s="0">
+      <c r="O7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1395,31 +1379,31 @@
       <c r="C8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s" s="0">
-        <v>102</v>
+      <c r="F8" t="s">
+        <v>99</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>55</v>
       </c>
-      <c r="K8" t="s" s="0">
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="L8" t="s">
         <v>39</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1428,8 +1412,8 @@
       <c r="N8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s" s="0">
-        <v>48</v>
+      <c r="O8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.35">
@@ -1442,31 +1426,31 @@
       <c r="C9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s" s="0">
-        <v>108</v>
+      <c r="F9" t="s">
+        <v>104</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>37</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>55</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="L9" t="s">
         <v>66</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1475,7 +1459,7 @@
       <c r="N9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O9" t="s" s="0">
+      <c r="O9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1489,31 +1473,31 @@
       <c r="C10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s" s="0">
-        <v>103</v>
+      <c r="F10" t="s">
+        <v>100</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="J10" t="s">
         <v>55</v>
       </c>
-      <c r="K10" t="s" s="0">
+      <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="L10" t="s">
         <v>39</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1522,8 +1506,8 @@
       <c r="N10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O10" t="s" s="0">
-        <v>48</v>
+      <c r="O10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.35">
@@ -1536,31 +1520,31 @@
       <c r="C11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s" s="0">
-        <v>95</v>
+      <c r="F11" t="s">
+        <v>93</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" t="s" s="0">
+      <c r="H11" t="s">
         <v>72</v>
       </c>
-      <c r="I11" t="s" s="0">
+      <c r="I11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" t="s" s="0">
+      <c r="J11" t="s">
         <v>55</v>
       </c>
-      <c r="K11" t="s" s="0">
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" t="s" s="0">
+      <c r="L11" t="s">
         <v>80</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -1569,8 +1553,8 @@
       <c r="N11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O11" t="s" s="0">
-        <v>48</v>
+      <c r="O11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.35">
@@ -1583,7 +1567,7 @@
       <c r="C12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1592,19 +1576,19 @@
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" t="s" s="0">
+      <c r="H12" t="s">
         <v>73</v>
       </c>
-      <c r="I12" t="s" s="0">
+      <c r="I12" t="s">
         <v>10</v>
       </c>
-      <c r="J12" t="s" s="0">
+      <c r="J12" t="s">
         <v>55</v>
       </c>
-      <c r="K12" t="s" s="0">
+      <c r="K12" t="s">
         <v>13</v>
       </c>
-      <c r="L12" t="s" s="0">
+      <c r="L12" t="s">
         <v>40</v>
       </c>
       <c r="M12" s="4" t="s">
@@ -1613,8 +1597,8 @@
       <c r="N12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O12" t="s" s="0">
-        <v>48</v>
+      <c r="O12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.35">
@@ -1627,31 +1611,31 @@
       <c r="C13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s" s="0">
-        <v>110</v>
+      <c r="F13" t="s">
+        <v>105</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" t="s" s="0">
+      <c r="H13" t="s">
         <v>74</v>
       </c>
-      <c r="I13" t="s" s="0">
+      <c r="I13" t="s">
         <v>10</v>
       </c>
-      <c r="J13" t="s" s="0">
+      <c r="J13" t="s">
         <v>55</v>
       </c>
-      <c r="K13" t="s" s="0">
+      <c r="K13" t="s">
         <v>13</v>
       </c>
-      <c r="L13" t="s" s="0">
+      <c r="L13" t="s">
         <v>66</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -1660,7 +1644,7 @@
       <c r="N13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O13" t="s" s="0">
+      <c r="O13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1674,31 +1658,31 @@
       <c r="C14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F14" t="s" s="0">
-        <v>96</v>
+      <c r="F14" t="s">
+        <v>94</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H14" t="s" s="0">
+      <c r="H14" t="s">
         <v>75</v>
       </c>
-      <c r="I14" t="s" s="0">
+      <c r="I14" t="s">
         <v>10</v>
       </c>
-      <c r="J14" t="s" s="0">
+      <c r="J14" t="s">
         <v>55</v>
       </c>
-      <c r="K14" t="s" s="0">
+      <c r="K14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="s" s="0">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -1707,8 +1691,8 @@
       <c r="N14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O14" t="s" s="0">
-        <v>48</v>
+      <c r="O14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.35">
@@ -1721,31 +1705,31 @@
       <c r="C15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" t="s" s="0">
-        <v>111</v>
+      <c r="F15" t="s">
+        <v>106</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" t="s" s="0">
+      <c r="H15" t="s">
         <v>76</v>
       </c>
-      <c r="I15" t="s" s="0">
+      <c r="I15" t="s">
         <v>10</v>
       </c>
-      <c r="J15" t="s" s="0">
+      <c r="J15" t="s">
         <v>55</v>
       </c>
-      <c r="K15" t="s" s="0">
+      <c r="K15" t="s">
         <v>13</v>
       </c>
-      <c r="L15" t="s" s="0">
+      <c r="L15" t="s">
         <v>39</v>
       </c>
       <c r="M15" s="4" t="s">
@@ -1754,7 +1738,7 @@
       <c r="N15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O15" t="s" s="0">
+      <c r="O15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1768,31 +1752,31 @@
       <c r="C16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F16" t="s" s="0">
-        <v>97</v>
+      <c r="F16" t="s">
+        <v>95</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H16" t="s" s="0">
+      <c r="H16" t="s">
         <v>77</v>
       </c>
-      <c r="I16" t="s" s="0">
+      <c r="I16" t="s">
         <v>10</v>
       </c>
-      <c r="J16" t="s" s="0">
+      <c r="J16" t="s">
         <v>55</v>
       </c>
-      <c r="K16" t="s" s="0">
+      <c r="K16" t="s">
         <v>13</v>
       </c>
-      <c r="L16" t="s" s="0">
+      <c r="L16" t="s">
         <v>80</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -1801,8 +1785,8 @@
       <c r="N16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O16" t="s" s="0">
-        <v>48</v>
+      <c r="O16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -1815,31 +1799,31 @@
       <c r="C17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F17" t="s" s="0">
-        <v>112</v>
+      <c r="F17" t="s">
+        <v>107</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H17" t="s" s="0">
+      <c r="H17" t="s">
         <v>78</v>
       </c>
-      <c r="I17" t="s" s="0">
+      <c r="I17" t="s">
         <v>10</v>
       </c>
-      <c r="J17" t="s" s="0">
+      <c r="J17" t="s">
         <v>55</v>
       </c>
-      <c r="K17" t="s" s="0">
+      <c r="K17" t="s">
         <v>13</v>
       </c>
-      <c r="L17" t="s" s="0">
+      <c r="L17" t="s">
         <v>40</v>
       </c>
       <c r="M17" s="4" t="s">
@@ -1848,7 +1832,7 @@
       <c r="N17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O17" t="s" s="0">
+      <c r="O17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1862,31 +1846,31 @@
       <c r="C18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F18" t="s" s="0">
-        <v>98</v>
+      <c r="F18" t="s">
+        <v>96</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H18" t="s" s="0">
+      <c r="H18" t="s">
         <v>79</v>
       </c>
-      <c r="I18" t="s" s="0">
+      <c r="I18" t="s">
         <v>10</v>
       </c>
-      <c r="J18" t="s" s="0">
+      <c r="J18" t="s">
         <v>55</v>
       </c>
-      <c r="K18" t="s" s="0">
+      <c r="K18" t="s">
         <v>13</v>
       </c>
-      <c r="L18" t="s" s="0">
+      <c r="L18" t="s">
         <v>66</v>
       </c>
       <c r="M18" s="4" t="s">
@@ -1895,8 +1879,8 @@
       <c r="N18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O18" t="s" s="0">
-        <v>48</v>
+      <c r="O18" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC039_WF_RRYN_OneYN_TwoY_Test.xlsx
+++ b/testData/WebForm/TC039_WF_RRYN_OneYN_TwoY_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="109">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -291,58 +291,61 @@
     <t>WF_RRYN_OneYN_TwoY</t>
   </si>
   <si>
-    <t>9840040248</t>
-  </si>
-  <si>
-    <t>9840078809</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>9840017105</t>
-  </si>
-  <si>
-    <t>9840000724</t>
-  </si>
-  <si>
-    <t>9840082961</t>
-  </si>
-  <si>
-    <t>9840037748</t>
-  </si>
-  <si>
-    <t>9840027434</t>
-  </si>
-  <si>
-    <t>9840003802</t>
-  </si>
-  <si>
-    <t>9840059271</t>
-  </si>
-  <si>
-    <t>9840021666</t>
-  </si>
-  <si>
-    <t>9840064040</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9840070716</t>
-  </si>
-  <si>
-    <t>9840073579</t>
-  </si>
-  <si>
-    <t>9840013209</t>
-  </si>
-  <si>
-    <t>9840028337</t>
-  </si>
-  <si>
-    <t>9840016575</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9840078484</t>
+  </si>
+  <si>
+    <t>9840019412</t>
+  </si>
+  <si>
+    <t>9840082075</t>
+  </si>
+  <si>
+    <t>9840054140</t>
+  </si>
+  <si>
+    <t>9840054595</t>
+  </si>
+  <si>
+    <t>9840011739</t>
+  </si>
+  <si>
+    <t>9840025525</t>
+  </si>
+  <si>
+    <t>9840095715</t>
+  </si>
+  <si>
+    <t>9840015414</t>
+  </si>
+  <si>
+    <t>9840013041</t>
+  </si>
+  <si>
+    <t>9840001066</t>
+  </si>
+  <si>
+    <t>9840020415</t>
+  </si>
+  <si>
+    <t>9840061338</t>
+  </si>
+  <si>
+    <t>9840027008</t>
+  </si>
+  <si>
+    <t>9840073085</t>
+  </si>
+  <si>
+    <t>9840055545</t>
+  </si>
+  <si>
+    <t>9840034819</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -728,59 +731,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O18"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.54296875" customWidth="1"/>
-    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" customWidth="1"/>
-    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.54296875" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.6328125" customWidth="1"/>
-    <col min="34" max="35" width="15.26953125" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.81640625" customWidth="1"/>
-    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="15.26953125" customWidth="1"/>
-    <col min="44" max="44" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="11.453125" customWidth="1"/>
-    <col min="47" max="47" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="48" max="54" width="11.453125" customWidth="1"/>
-    <col min="55" max="55" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.5703125" customWidth="1"/>
+    <col min="34" max="35" width="15.28515625" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.85546875" customWidth="1"/>
+    <col min="38" max="38" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="15.28515625" customWidth="1"/>
+    <col min="44" max="44" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="11.42578125" customWidth="1"/>
+    <col min="47" max="47" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="54" width="11.42578125" customWidth="1"/>
+    <col min="55" max="55" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -959,7 +962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -976,7 +979,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1074,14 +1077,14 @@
       <c r="AL2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AM2" t="s">
-        <v>92</v>
+      <c r="AM2">
+        <v>2</v>
       </c>
       <c r="AN2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AO2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>84</v>
@@ -1133,7 +1136,7 @@
       </c>
       <c r="BF2" s="4"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1180,7 +1183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1227,7 +1230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1244,7 +1247,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1275,7 +1278,7 @@
       </c>
       <c r="AE5" s="4"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1322,7 +1325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1369,7 +1372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1416,7 +1419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,7 +1436,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1463,7 +1466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1510,7 +1513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -1557,7 +1560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1573,6 +1576,9 @@
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1601,7 +1607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -1648,7 +1654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1665,7 +1671,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -1695,7 +1701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1742,7 +1748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1759,7 +1765,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
@@ -1789,7 +1795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1806,7 +1812,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
@@ -1836,7 +1842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1853,7 +1859,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC039_WF_RRYN_OneYN_TwoY_Test.xlsx
+++ b/testData/WebForm/TC039_WF_RRYN_OneYN_TwoY_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="145">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -291,67 +291,176 @@
     <t>WF_RRYN_OneYN_TwoY</t>
   </si>
   <si>
+    <t>9840002005</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>9840097721</t>
+  </si>
+  <si>
+    <t>9840015434</t>
+  </si>
+  <si>
+    <t>9840062272</t>
+  </si>
+  <si>
+    <t>9840045484</t>
+  </si>
+  <si>
+    <t>9840066179</t>
+  </si>
+  <si>
+    <t>9840005749</t>
+  </si>
+  <si>
+    <t>9840083996</t>
+  </si>
+  <si>
+    <t>9840071911</t>
+  </si>
+  <si>
+    <t>9840099694</t>
+  </si>
+  <si>
+    <t>9840037967</t>
+  </si>
+  <si>
+    <t>9840019274</t>
+  </si>
+  <si>
+    <t>9840003741</t>
+  </si>
+  <si>
+    <t>9840042457</t>
+  </si>
+  <si>
+    <t>9840038208</t>
+  </si>
+  <si>
+    <t>9840086568</t>
+  </si>
+  <si>
+    <t>9840011339</t>
+  </si>
+  <si>
+    <t>9840036161</t>
+  </si>
+  <si>
+    <t>9840081911</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>9840078484</t>
-  </si>
-  <si>
-    <t>9840019412</t>
-  </si>
-  <si>
-    <t>9840082075</t>
-  </si>
-  <si>
-    <t>9840054140</t>
-  </si>
-  <si>
-    <t>9840054595</t>
-  </si>
-  <si>
-    <t>9840011739</t>
-  </si>
-  <si>
-    <t>9840025525</t>
-  </si>
-  <si>
-    <t>9840095715</t>
-  </si>
-  <si>
-    <t>9840015414</t>
-  </si>
-  <si>
-    <t>9840013041</t>
-  </si>
-  <si>
-    <t>9840001066</t>
-  </si>
-  <si>
-    <t>9840020415</t>
-  </si>
-  <si>
-    <t>9840061338</t>
-  </si>
-  <si>
-    <t>9840027008</t>
-  </si>
-  <si>
-    <t>9840073085</t>
-  </si>
-  <si>
-    <t>9840055545</t>
-  </si>
-  <si>
-    <t>9840034819</t>
+    <t>9840052363</t>
+  </si>
+  <si>
+    <t>9840004529</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9840064461</t>
+  </si>
+  <si>
+    <t>9840075086</t>
+  </si>
+  <si>
+    <t>9840024278</t>
+  </si>
+  <si>
+    <t>9840007401</t>
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>9840096070</t>
+  </si>
+  <si>
+    <t>9840016416</t>
+  </si>
+  <si>
+    <t>9840037488</t>
+  </si>
+  <si>
+    <t>9840048104</t>
+  </si>
+  <si>
+    <t>9840029343</t>
+  </si>
+  <si>
+    <t>9840054806</t>
+  </si>
+  <si>
+    <t>9840079544</t>
+  </si>
+  <si>
+    <t>9840041835</t>
+  </si>
+  <si>
+    <t>9840029585</t>
+  </si>
+  <si>
+    <t>9840019272</t>
+  </si>
+  <si>
+    <t>9840006627</t>
+  </si>
+  <si>
+    <t>9840021273</t>
+  </si>
+  <si>
+    <t>9840019935</t>
+  </si>
+  <si>
+    <t>9840024085</t>
+  </si>
+  <si>
+    <t>9840056818</t>
+  </si>
+  <si>
+    <t>9840063252</t>
+  </si>
+  <si>
+    <t>9840030495</t>
+  </si>
+  <si>
+    <t>9840078447</t>
+  </si>
+  <si>
+    <t>9840053658</t>
+  </si>
+  <si>
+    <t>9840081333</t>
+  </si>
+  <si>
+    <t>9840017892</t>
+  </si>
+  <si>
+    <t>9840061515</t>
+  </si>
+  <si>
+    <t>9840084016</t>
+  </si>
+  <si>
+    <t>9840083907</t>
+  </si>
+  <si>
+    <t>9840029484</t>
+  </si>
+  <si>
+    <t>9840094923</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -731,93 +840,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" customWidth="1"/>
-    <col min="20" max="20" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" customWidth="1"/>
-    <col min="23" max="23" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.5703125" customWidth="1"/>
-    <col min="34" max="35" width="15.28515625" customWidth="1"/>
-    <col min="36" max="36" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.85546875" customWidth="1"/>
-    <col min="38" max="38" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="15.28515625" customWidth="1"/>
-    <col min="44" max="44" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="11.42578125" customWidth="1"/>
-    <col min="47" max="47" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="54" width="11.42578125" customWidth="1"/>
-    <col min="55" max="55" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="13.85546875"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="42" max="43" customWidth="true" width="15.28515625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="45" max="46" customWidth="true" width="11.42578125"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="48" max="54" customWidth="true" width="11.42578125"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7109375"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -826,139 +935,139 @@
       <c r="N1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -972,31 +1081,31 @@
       <c r="C2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>100</v>
+      <c r="F2" t="s" s="0">
+        <v>128</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -1005,43 +1114,43 @@
       <c r="N2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>17</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="Q2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="W2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="W2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="X2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="AB2" s="9" t="s">
@@ -1071,20 +1180,20 @@
       <c r="AJ2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" t="s" s="0">
         <v>29</v>
       </c>
       <c r="AL2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AM2">
-        <v>2</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>90</v>
+      <c r="AM2" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="AN2" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="AO2" t="s" s="0">
+        <v>110</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>84</v>
@@ -1146,28 +1255,28 @@
       <c r="C3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>101</v>
+      <c r="F3" t="s" s="0">
+        <v>129</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1179,7 +1288,7 @@
       <c r="N3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1193,28 +1302,28 @@
       <c r="C4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>102</v>
+      <c r="F4" t="s" s="0">
+        <v>130</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1226,7 +1335,7 @@
       <c r="N4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1240,28 +1349,28 @@
       <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>103</v>
+      <c r="F5" t="s" s="0">
+        <v>131</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1273,7 +1382,7 @@
       <c r="N5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" t="s" s="0">
         <v>17</v>
       </c>
       <c r="AE5" s="4"/>
@@ -1288,31 +1397,31 @@
       <c r="C6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>104</v>
+      <c r="F6" t="s" s="0">
+        <v>132</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1321,7 +1430,7 @@
       <c r="N6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1335,14 +1444,14 @@
       <c r="C7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>105</v>
+      <c r="F7" t="s" s="0">
+        <v>133</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1350,16 +1459,16 @@
       <c r="H7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1368,7 +1477,7 @@
       <c r="N7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1382,31 +1491,31 @@
       <c r="C8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>106</v>
+      <c r="F8" t="s" s="0">
+        <v>134</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1415,7 +1524,7 @@
       <c r="N8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1429,31 +1538,31 @@
       <c r="C9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>107</v>
+      <c r="F9" t="s" s="0">
+        <v>135</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>66</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1462,7 +1571,7 @@
       <c r="N9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1476,31 +1585,31 @@
       <c r="C10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
-        <v>91</v>
+      <c r="F10" t="s" s="0">
+        <v>136</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1509,7 +1618,7 @@
       <c r="N10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1523,31 +1632,31 @@
       <c r="C11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
-        <v>92</v>
+      <c r="F11" t="s" s="0">
+        <v>137</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" t="s" s="0">
         <v>80</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -1556,7 +1665,7 @@
       <c r="N11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1570,31 +1679,31 @@
       <c r="C12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s">
-        <v>93</v>
+      <c r="F12" t="s" s="0">
+        <v>138</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M12" s="4" t="s">
@@ -1603,7 +1712,7 @@
       <c r="N12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1617,31 +1726,31 @@
       <c r="C13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s">
-        <v>94</v>
+      <c r="F13" t="s" s="0">
+        <v>139</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" t="s" s="0">
         <v>66</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -1650,7 +1759,7 @@
       <c r="N13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1664,31 +1773,31 @@
       <c r="C14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F14" t="s">
-        <v>95</v>
+      <c r="F14" t="s" s="0">
+        <v>140</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -1697,7 +1806,7 @@
       <c r="N14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1711,31 +1820,31 @@
       <c r="C15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" t="s">
-        <v>96</v>
+      <c r="F15" t="s" s="0">
+        <v>141</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M15" s="4" t="s">
@@ -1744,7 +1853,7 @@
       <c r="N15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1758,31 +1867,31 @@
       <c r="C16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F16" t="s">
-        <v>97</v>
+      <c r="F16" t="s" s="0">
+        <v>142</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" t="s" s="0">
         <v>80</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -1791,7 +1900,7 @@
       <c r="N16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1805,31 +1914,31 @@
       <c r="C17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F17" t="s">
-        <v>98</v>
+      <c r="F17" t="s" s="0">
+        <v>143</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M17" s="4" t="s">
@@ -1838,7 +1947,7 @@
       <c r="N17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1852,31 +1961,31 @@
       <c r="C18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F18" t="s">
-        <v>99</v>
+      <c r="F18" t="s" s="0">
+        <v>144</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" t="s" s="0">
         <v>66</v>
       </c>
       <c r="M18" s="4" t="s">
@@ -1885,7 +1994,7 @@
       <c r="N18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" t="s" s="0">
         <v>17</v>
       </c>
     </row>

--- a/testData/WebForm/TC039_WF_RRYN_OneYN_TwoY_Test.xlsx
+++ b/testData/WebForm/TC039_WF_RRYN_OneYN_TwoY_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="162">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -454,6 +454,57 @@
   </si>
   <si>
     <t>9840094923</t>
+  </si>
+  <si>
+    <t>9840066974</t>
+  </si>
+  <si>
+    <t>9840023880</t>
+  </si>
+  <si>
+    <t>9840069218</t>
+  </si>
+  <si>
+    <t>9840036347</t>
+  </si>
+  <si>
+    <t>9840060339</t>
+  </si>
+  <si>
+    <t>9840080006</t>
+  </si>
+  <si>
+    <t>9840083262</t>
+  </si>
+  <si>
+    <t>9840053787</t>
+  </si>
+  <si>
+    <t>9840094933</t>
+  </si>
+  <si>
+    <t>9840081938</t>
+  </si>
+  <si>
+    <t>9840053142</t>
+  </si>
+  <si>
+    <t>9840087486</t>
+  </si>
+  <si>
+    <t>9840012413</t>
+  </si>
+  <si>
+    <t>9840010496</t>
+  </si>
+  <si>
+    <t>9840021936</t>
+  </si>
+  <si>
+    <t>9840051409</t>
+  </si>
+  <si>
+    <t>9840093304</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1139,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1187,13 +1238,13 @@
         <v>89</v>
       </c>
       <c r="AM2" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="AN2" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="AO2" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="AN2" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="AO2" t="s" s="0">
-        <v>110</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>84</v>
@@ -1262,7 +1313,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1309,7 +1360,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1356,7 +1407,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1404,7 +1455,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1451,7 +1502,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1498,7 +1549,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1545,7 +1596,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1592,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1639,7 +1690,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -1686,7 +1737,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -1733,7 +1784,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -1780,7 +1831,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -1827,7 +1878,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1874,7 +1925,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
@@ -1921,7 +1972,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
@@ -1968,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC039_WF_RRYN_OneYN_TwoY_Test.xlsx
+++ b/testData/WebForm/TC039_WF_RRYN_OneYN_TwoY_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="111">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -291,220 +291,67 @@
     <t>WF_RRYN_OneYN_TwoY</t>
   </si>
   <si>
-    <t>9840002005</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>9840097721</t>
-  </si>
-  <si>
-    <t>9840015434</t>
-  </si>
-  <si>
-    <t>9840062272</t>
-  </si>
-  <si>
-    <t>9840045484</t>
-  </si>
-  <si>
-    <t>9840066179</t>
-  </si>
-  <si>
-    <t>9840005749</t>
-  </si>
-  <si>
-    <t>9840083996</t>
-  </si>
-  <si>
-    <t>9840071911</t>
-  </si>
-  <si>
-    <t>9840099694</t>
-  </si>
-  <si>
-    <t>9840037967</t>
-  </si>
-  <si>
-    <t>9840019274</t>
-  </si>
-  <si>
-    <t>9840003741</t>
-  </si>
-  <si>
-    <t>9840042457</t>
-  </si>
-  <si>
-    <t>9840038208</t>
-  </si>
-  <si>
-    <t>9840086568</t>
-  </si>
-  <si>
-    <t>9840011339</t>
-  </si>
-  <si>
-    <t>9840036161</t>
-  </si>
-  <si>
-    <t>9840081911</t>
+    <t>9840066974</t>
+  </si>
+  <si>
+    <t>9840069218</t>
+  </si>
+  <si>
+    <t>9840036347</t>
+  </si>
+  <si>
+    <t>9840060339</t>
+  </si>
+  <si>
+    <t>9840080006</t>
+  </si>
+  <si>
+    <t>9840083262</t>
+  </si>
+  <si>
+    <t>9840053787</t>
+  </si>
+  <si>
+    <t>9840094933</t>
+  </si>
+  <si>
+    <t>9840081938</t>
+  </si>
+  <si>
+    <t>9840053142</t>
+  </si>
+  <si>
+    <t>9840012413</t>
+  </si>
+  <si>
+    <t>9840010496</t>
+  </si>
+  <si>
+    <t>9840021936</t>
+  </si>
+  <si>
+    <t>9840051409</t>
+  </si>
+  <si>
+    <t>9840093304</t>
+  </si>
+  <si>
+    <t>9840060790</t>
+  </si>
+  <si>
+    <t>9840088587</t>
+  </si>
+  <si>
+    <t>9840062000</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>9840052363</t>
-  </si>
-  <si>
-    <t>9840004529</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9840064461</t>
-  </si>
-  <si>
-    <t>9840075086</t>
-  </si>
-  <si>
-    <t>9840024278</t>
-  </si>
-  <si>
-    <t>9840007401</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9840096070</t>
-  </si>
-  <si>
-    <t>9840016416</t>
-  </si>
-  <si>
-    <t>9840037488</t>
-  </si>
-  <si>
-    <t>9840048104</t>
-  </si>
-  <si>
-    <t>9840029343</t>
-  </si>
-  <si>
-    <t>9840054806</t>
-  </si>
-  <si>
-    <t>9840079544</t>
-  </si>
-  <si>
-    <t>9840041835</t>
-  </si>
-  <si>
-    <t>9840029585</t>
-  </si>
-  <si>
-    <t>9840019272</t>
-  </si>
-  <si>
-    <t>9840006627</t>
-  </si>
-  <si>
-    <t>9840021273</t>
-  </si>
-  <si>
-    <t>9840019935</t>
-  </si>
-  <si>
-    <t>9840024085</t>
-  </si>
-  <si>
-    <t>9840056818</t>
-  </si>
-  <si>
-    <t>9840063252</t>
-  </si>
-  <si>
-    <t>9840030495</t>
-  </si>
-  <si>
-    <t>9840078447</t>
-  </si>
-  <si>
-    <t>9840053658</t>
-  </si>
-  <si>
-    <t>9840081333</t>
-  </si>
-  <si>
-    <t>9840017892</t>
-  </si>
-  <si>
-    <t>9840061515</t>
-  </si>
-  <si>
-    <t>9840084016</t>
-  </si>
-  <si>
-    <t>9840083907</t>
-  </si>
-  <si>
-    <t>9840029484</t>
-  </si>
-  <si>
-    <t>9840094923</t>
-  </si>
-  <si>
-    <t>9840066974</t>
-  </si>
-  <si>
-    <t>9840023880</t>
-  </si>
-  <si>
-    <t>9840069218</t>
-  </si>
-  <si>
-    <t>9840036347</t>
-  </si>
-  <si>
-    <t>9840060339</t>
-  </si>
-  <si>
-    <t>9840080006</t>
-  </si>
-  <si>
-    <t>9840083262</t>
-  </si>
-  <si>
-    <t>9840053787</t>
-  </si>
-  <si>
-    <t>9840094933</t>
-  </si>
-  <si>
-    <t>9840081938</t>
-  </si>
-  <si>
-    <t>9840053142</t>
-  </si>
-  <si>
-    <t>9840087486</t>
-  </si>
-  <si>
-    <t>9840012413</t>
-  </si>
-  <si>
-    <t>9840010496</t>
-  </si>
-  <si>
-    <t>9840021936</t>
-  </si>
-  <si>
-    <t>9840051409</t>
-  </si>
-  <si>
-    <t>9840093304</t>
+    <t>9840037070</t>
   </si>
 </sst>
 </file>
@@ -891,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +986,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1166,7 +1013,7 @@
         <v>51</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>67</v>
@@ -1238,13 +1085,13 @@
         <v>89</v>
       </c>
       <c r="AM2" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="AO2" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>84</v>
@@ -1313,7 +1160,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1360,7 +1207,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1387,7 +1234,7 @@
         <v>51</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
@@ -1407,7 +1254,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1434,7 +1281,7 @@
         <v>45</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
@@ -1455,7 +1302,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1482,7 +1329,7 @@
         <v>52</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
@@ -1502,7 +1349,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1529,7 +1376,7 @@
         <v>45</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
@@ -1549,7 +1396,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1576,7 +1423,7 @@
         <v>52</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.25">
@@ -1596,7 +1443,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1623,7 +1470,7 @@
         <v>45</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
@@ -1643,7 +1490,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1670,7 +1517,7 @@
         <v>52</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
@@ -1690,7 +1537,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -1717,7 +1564,7 @@
         <v>50</v>
       </c>
       <c r="O11" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
@@ -1737,7 +1584,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -1764,7 +1611,7 @@
         <v>51</v>
       </c>
       <c r="O12" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
@@ -1784,7 +1631,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -1831,7 +1678,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -1858,7 +1705,7 @@
         <v>52</v>
       </c>
       <c r="O14" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
@@ -1878,7 +1725,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1905,7 +1752,7 @@
         <v>45</v>
       </c>
       <c r="O15" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
@@ -1925,7 +1772,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
@@ -1952,7 +1799,7 @@
         <v>51</v>
       </c>
       <c r="O16" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1972,7 +1819,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
@@ -1999,7 +1846,7 @@
         <v>45</v>
       </c>
       <c r="O17" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -2019,7 +1866,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
@@ -2046,7 +1893,7 @@
         <v>52</v>
       </c>
       <c r="O18" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
